--- a/IdleQuest.xlsx
+++ b/IdleQuest.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97709571ec787701/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD44C87-E070-494E-AD0F-2B1E5AD4C8A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="8_{5F50E566-68AF-4D73-99C9-A8CDB3E3F887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{45505524-0451-4B56-BEEF-A6C333CB3DEC}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3075" windowWidth="15375" windowHeight="7995" xr2:uid="{E80DA7F6-1346-4970-96B5-338067CFB3A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E80DA7F6-1346-4970-96B5-338067CFB3A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Enemies" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,17 +35,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Drop Rate</t>
+  </si>
+  <si>
+    <t>Drops From</t>
+  </si>
+  <si>
+    <t>Ally Speed</t>
+  </si>
+  <si>
     <t>Ally Damage</t>
   </si>
   <si>
-    <t>Ally Speed</t>
-  </si>
-  <si>
     <t>Click Damage</t>
   </si>
   <si>
@@ -60,12 +67,6 @@
     <t>Focus</t>
   </si>
   <si>
-    <t>Drop Rate</t>
-  </si>
-  <si>
-    <t>Drops From</t>
-  </si>
-  <si>
     <t>Woodcutter's Axe</t>
   </si>
   <si>
@@ -75,96 +76,105 @@
     <t>Rogue Cloak</t>
   </si>
   <si>
+    <t>Purple Rabbit</t>
+  </si>
+  <si>
     <t>Rogue Sword</t>
   </si>
   <si>
-    <t>Purple Rabbit</t>
-  </si>
-  <si>
     <t>Split Ravager</t>
   </si>
   <si>
     <t>9-Tailed Fox</t>
   </si>
   <si>
+    <t>Vampire Cloak</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
     <t>Vampire Sword</t>
   </si>
   <si>
-    <t>Vampire Cloak</t>
-  </si>
-  <si>
-    <t>Bat</t>
-  </si>
-  <si>
     <t>Wolf Tail</t>
   </si>
   <si>
+    <t>Brown Hound</t>
+  </si>
+  <si>
+    <t>Dark Hound</t>
+  </si>
+  <si>
     <t>Gnawed Bone</t>
   </si>
   <si>
-    <t>Brown Hound</t>
-  </si>
-  <si>
-    <t>Dark Hound</t>
-  </si>
-  <si>
     <t>Ghostly Circlet</t>
   </si>
   <si>
+    <t>Ghost</t>
+  </si>
+  <si>
     <t>Ghostly Sword</t>
   </si>
   <si>
-    <t>Ghost</t>
+    <t>Jester's Cape</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
   </si>
   <si>
     <t>Jester's Staff</t>
   </si>
   <si>
-    <t>Jester's Cape</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
     <t>Blood Cloak</t>
   </si>
   <si>
+    <t>Death Knight</t>
+  </si>
+  <si>
     <t>Sanguine Blade</t>
   </si>
   <si>
-    <t>Death Knight</t>
-  </si>
-  <si>
     <t>Sneevil Cloak</t>
   </si>
   <si>
+    <t>Sneevil</t>
+  </si>
+  <si>
     <t>Sneevil Sword</t>
   </si>
   <si>
-    <t>Sneevil</t>
-  </si>
-  <si>
     <t>Blue Starsword</t>
   </si>
   <si>
+    <t>D20</t>
+  </si>
+  <si>
     <t>Green Starsword</t>
   </si>
   <si>
     <t>Red Starsword</t>
   </si>
   <si>
-    <t>D20</t>
-  </si>
-  <si>
     <t>Winged Blade</t>
   </si>
   <si>
     <t>Kitchen Sink</t>
   </si>
   <si>
+    <t>Energy Sword</t>
+  </si>
+  <si>
+    <t>Robot Rex</t>
+  </si>
+  <si>
     <t>Lemur Cloak</t>
   </si>
   <si>
+    <t>Mimic</t>
+  </si>
+  <si>
     <t>Pirate Cape</t>
   </si>
   <si>
@@ -174,15 +184,6 @@
     <t>Privateer Cutlass</t>
   </si>
   <si>
-    <t>Mimic</t>
-  </si>
-  <si>
-    <t>Energy Sword</t>
-  </si>
-  <si>
-    <t>Robot Rex</t>
-  </si>
-  <si>
     <t>Ruin Blade</t>
   </si>
   <si>
@@ -198,12 +199,12 @@
     <t>Prehistoric Cloak</t>
   </si>
   <si>
+    <t>Stone Elemental</t>
+  </si>
+  <si>
     <t>Prehistoric War Axe</t>
   </si>
   <si>
-    <t>Stone Elemental</t>
-  </si>
-  <si>
     <t>Cobra Staff</t>
   </si>
   <si>
@@ -213,33 +214,33 @@
     <t>Anubis Wraps</t>
   </si>
   <si>
+    <t>Brutalcorn</t>
+  </si>
+  <si>
     <t>Anubis Scepter</t>
   </si>
   <si>
-    <t>Brutalcorn</t>
-  </si>
-  <si>
     <t>Dragon Cloak</t>
   </si>
   <si>
+    <t>Pink Dragon</t>
+  </si>
+  <si>
+    <t>Red Dragon</t>
+  </si>
+  <si>
     <t>Dragon Blade</t>
   </si>
   <si>
-    <t>Pink Dragon</t>
-  </si>
-  <si>
-    <t>Red Dragon</t>
-  </si>
-  <si>
     <t>Fire Cloak</t>
   </si>
   <si>
+    <t>Fire Troll</t>
+  </si>
+  <si>
     <t>Fire Sword</t>
   </si>
   <si>
-    <t>Fire Troll</t>
-  </si>
-  <si>
     <t>Cinder Blade</t>
   </si>
   <si>
@@ -249,12 +250,12 @@
     <t>Magmatic Cloak</t>
   </si>
   <si>
+    <t>Diabliod</t>
+  </si>
+  <si>
     <t>Magmatic Blade</t>
   </si>
   <si>
-    <t>Diabliod</t>
-  </si>
-  <si>
     <t>Assassin's Cloak</t>
   </si>
   <si>
@@ -267,39 +268,39 @@
     <t>Tanuki Tail</t>
   </si>
   <si>
+    <t>Panda</t>
+  </si>
+  <si>
     <t>Tanuki Dao</t>
   </si>
   <si>
-    <t>Panda</t>
-  </si>
-  <si>
     <t>SmartSword 7</t>
   </si>
   <si>
+    <t>Forum Troll</t>
+  </si>
+  <si>
     <t>SmartSword X</t>
   </si>
   <si>
-    <t>Forum Troll</t>
-  </si>
-  <si>
     <t>Dragon Wings</t>
   </si>
   <si>
+    <t>Drakel</t>
+  </si>
+  <si>
     <t>Dragon Claymore</t>
   </si>
   <si>
-    <t>Drakel</t>
-  </si>
-  <si>
     <t>Samurai's Scabbard</t>
   </si>
   <si>
+    <t>Undead Samurai</t>
+  </si>
+  <si>
     <t>Samurai's Katana</t>
   </si>
   <si>
-    <t>Undead Samurai</t>
-  </si>
-  <si>
     <t>Doom Cape</t>
   </si>
   <si>
@@ -312,12 +313,12 @@
     <t>Vantablack Cloak</t>
   </si>
   <si>
+    <t>Cthulu</t>
+  </si>
+  <si>
     <t>Obsidian Sword</t>
   </si>
   <si>
-    <t>Cthulu</t>
-  </si>
-  <si>
     <t>Water Cloak</t>
   </si>
   <si>
@@ -351,12 +352,12 @@
     <t>Wind Cloak</t>
   </si>
   <si>
+    <t>Wind Elemental</t>
+  </si>
+  <si>
     <t>Wind Blade</t>
   </si>
   <si>
-    <t>Wind Elemental</t>
-  </si>
-  <si>
     <t>Frost Mantle</t>
   </si>
   <si>
@@ -372,15 +373,15 @@
     <t>Adventurer</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
     <t>Condemner's Mantle</t>
   </si>
   <si>
     <t>Condemner's Spear</t>
   </si>
   <si>
-    <t>Knight</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -412,6 +413,366 @@
   </si>
   <si>
     <t>Sensei's Blade</t>
+  </si>
+  <si>
+    <t>Drops</t>
+  </si>
+  <si>
+    <t>Trobble</t>
+  </si>
+  <si>
+    <t>Appears on Level</t>
+  </si>
+  <si>
+    <t>Stump</t>
+  </si>
+  <si>
+    <t>Crow</t>
+  </si>
+  <si>
+    <t>Pidgier</t>
+  </si>
+  <si>
+    <t>Foxy</t>
+  </si>
+  <si>
+    <t>Rogue Cloak, Rogue Sword</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>Wolf Tail, Gnawed Bone</t>
+  </si>
+  <si>
+    <t>Vampire Cloak,  Vampire Sword</t>
+  </si>
+  <si>
+    <t>Ghostly Circlet, Ghostly Sword</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>4, 5, 6, 7</t>
+  </si>
+  <si>
+    <t>Jester's Cape, Jester's Staff</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2, 9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Pixie</t>
+  </si>
+  <si>
+    <t>Jackalope</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Sneevil Cloak, Sneevil Sword</t>
+  </si>
+  <si>
+    <t>Socky</t>
+  </si>
+  <si>
+    <t>Robot T-Rex</t>
+  </si>
+  <si>
+    <t>Salt Shaker</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Blue Starsword, Green Starsword, Red Starsword</t>
+  </si>
+  <si>
+    <t>Lemur Cloak, Pirate Cape, Pirate Cutlass, Privateer Cutlass</t>
+  </si>
+  <si>
+    <t>Flushy</t>
+  </si>
+  <si>
+    <t>Tire</t>
+  </si>
+  <si>
+    <t>12, 13</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Pebble</t>
+  </si>
+  <si>
+    <t>Prehistoric Cloak, Prehistoric War Axe</t>
+  </si>
+  <si>
+    <t>14, 15</t>
+  </si>
+  <si>
+    <t>Nimbus</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Purple Mane Pony</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Anubis Wraps, Anubis Scepter</t>
+  </si>
+  <si>
+    <t>14, 17</t>
+  </si>
+  <si>
+    <t>Blaze</t>
+  </si>
+  <si>
+    <t>Dragon Cloak, Dragon Blade</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17, 18, 19</t>
+  </si>
+  <si>
+    <t>Flame Elemental</t>
+  </si>
+  <si>
+    <t>Blood Cloak, Sanguine Blade</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19, 20</t>
+  </si>
+  <si>
+    <t>Fire Cloak, Fire Sword</t>
+  </si>
+  <si>
+    <t>Magmatic Cloak, Magmatic Mace</t>
+  </si>
+  <si>
+    <t>Molten Elemental</t>
+  </si>
+  <si>
+    <t>Slimewad</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Red Rex</t>
+  </si>
+  <si>
+    <t>Squak</t>
+  </si>
+  <si>
+    <t>21, 22</t>
+  </si>
+  <si>
+    <t>Tanuki Tail, Tanuki Dao</t>
+  </si>
+  <si>
+    <t>Assassin's Cloak, Assassin's Blade</t>
+  </si>
+  <si>
+    <t>15, 21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>SmartSword 7, SmartSword X</t>
+  </si>
+  <si>
+    <t>5, 6, 7, 23, 24</t>
+  </si>
+  <si>
+    <t>4, 5, 6, 7, 23, 24</t>
+  </si>
+  <si>
+    <t>Giant Skull</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Dragon Wings, Dragon Claymore</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Samurai's Scabbard, Samurai's Katana</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Doom Cloak, Doom Blade</t>
+  </si>
+  <si>
+    <t>7, 8, 23, 24, 25, 26, 27</t>
+  </si>
+  <si>
+    <t>7, 8, 14, 23, 24, 25, 26, 27</t>
+  </si>
+  <si>
+    <t>Vantablack Cloak, Obsidian Sword</t>
+  </si>
+  <si>
+    <t>Puddle</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Goldfish</t>
+  </si>
+  <si>
+    <t>Water Cloak, Water Trident</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>29, 30</t>
+  </si>
+  <si>
+    <t>Octobear</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Cape of the Sea, Staff of the Sea</t>
+  </si>
+  <si>
+    <t>Frost Wolf</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Wind Cloak, Wind Blade</t>
+  </si>
+  <si>
+    <t>17, 19</t>
+  </si>
+  <si>
+    <t>Frost Mantle, Frost Brand</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Riceball</t>
+  </si>
+  <si>
+    <t>Crushed Candy</t>
+  </si>
+  <si>
+    <t>Donut Pony</t>
+  </si>
+  <si>
+    <t>Cowator</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35, 36</t>
+  </si>
+  <si>
+    <t>Starter Sword, Condemner's Mantle, Condemner's Spear</t>
+  </si>
+  <si>
+    <t>Starter Sword, ???, ???</t>
+  </si>
+  <si>
+    <t>Starter Scepter, ???, ???</t>
+  </si>
+  <si>
+    <t>Starter Axe, ???, ???</t>
+  </si>
+  <si>
+    <t>Starter Staff, ???, ???, ???</t>
+  </si>
+  <si>
+    <t>Broom, Sensei's Wraps, Sensei's Blade</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Twilly</t>
+  </si>
+  <si>
+    <t>Zorbak</t>
+  </si>
+  <si>
+    <t>Kabroz</t>
+  </si>
+  <si>
+    <t>Blizzy</t>
+  </si>
+  <si>
+    <t>Twig</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Mort</t>
+  </si>
+  <si>
+    <t>???, ???</t>
+  </si>
+  <si>
+    <t>Lens Flare</t>
+  </si>
+  <si>
+    <t>More Info Required</t>
+  </si>
+  <si>
+    <t>Killy Kat</t>
+  </si>
+  <si>
+    <t>27? Needs verification</t>
   </si>
 </sst>
 </file>
@@ -419,12 +780,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -450,15 +817,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -481,10 +852,10 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.00000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,8 +871,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB115826-002C-4692-94C8-398C36B7DB61}" name="Table1" displayName="Table1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:J85" xr:uid="{E6774178-0411-4C08-B57F-91E4FDE1480D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB115826-002C-4692-94C8-398C36B7DB61}" name="Table1" displayName="Table1" ref="A1:J86" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:J86" xr:uid="{E6774178-0411-4C08-B57F-91E4FDE1480D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1417607F-DC6C-483B-8AC6-79A0094377A7}" name="Name"/>
     <tableColumn id="2" xr3:uid="{DD39E86F-A979-4B8D-B581-AB33E7D01CFB}" name="Drop Rate" dataDxfId="8"/>
@@ -513,6 +884,18 @@
     <tableColumn id="8" xr3:uid="{2DB07EAF-369A-4A3F-9DCF-482D819797AC}" name="Monster Duration" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{380B757A-0826-4458-AAD1-FE5AF0744798}" name="Gold Drops" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{8230317D-5B1E-4E59-BEFB-788841EA5231}" name="Focus" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{119CB808-193F-4766-BDEA-D23839FA0E84}" name="Table2" displayName="Table2" ref="A1:C83" totalsRowShown="0">
+  <autoFilter ref="A1:C83" xr:uid="{BBF408B5-2BCA-4A6E-9211-60FD5CFE8E32}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4B60F928-9CC9-413D-8BA4-6C80694B1E88}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{36302B2D-F4D9-44C1-BF00-FAF4DBB869C7}" name="Appears on Level" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{25E6DAA1-B007-471D-A61C-82D692BE8D07}" name="Drops"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,18 +1198,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF7701A-82AF-419C-B695-8ABCC4B32F00}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
@@ -840,31 +1221,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -889,21 +1270,21 @@
         <v>0.03</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>0.03</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
         <v>0.1</v>
@@ -919,7 +1300,7 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.02</v>
       </c>
       <c r="E5" s="1">
@@ -934,15 +1315,15 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>1E-3</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.03</v>
       </c>
       <c r="I6" s="1">
@@ -951,13 +1332,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>0.5</v>
@@ -977,7 +1358,7 @@
         <v>0.3</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>0.02</v>
@@ -991,7 +1372,7 @@
         <v>0.8</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1">
         <v>0.02</v>
@@ -999,13 +1380,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>0.3</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
         <v>0.02</v>
@@ -1016,13 +1397,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>0.8</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1">
         <v>0.02</v>
@@ -1039,7 +1420,7 @@
         <v>1E-3</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>0.05</v>
@@ -1050,13 +1431,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
         <v>1E-3</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
         <v>0.5</v>
@@ -1070,15 +1451,15 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>0.03</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.05</v>
       </c>
       <c r="I14" s="1">
@@ -1090,13 +1471,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>0.03</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1">
         <v>0.75</v>
@@ -1119,7 +1500,7 @@
         <v>0.25</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1">
         <v>0.05</v>
@@ -1127,13 +1508,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>0.25</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1150,21 +1531,21 @@
         <v>2E-3</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <v>2E-3</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1">
         <v>0.02</v>
@@ -1181,9 +1562,9 @@
         <v>0.01</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.01</v>
       </c>
       <c r="E20" s="1">
@@ -1195,15 +1576,15 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>0.01</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="2">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.01</v>
       </c>
       <c r="E21" s="1">
@@ -1215,15 +1596,15 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2">
         <v>0.01</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1">
         <v>0.01</v>
       </c>
       <c r="E22" s="1">
@@ -1255,15 +1636,15 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2">
         <v>0.05</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1">
         <v>0.03</v>
       </c>
       <c r="E24" s="1">
@@ -1275,15 +1656,15 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2">
         <v>0.1</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.05</v>
       </c>
       <c r="G25" s="1">
@@ -1292,15 +1673,15 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2">
         <v>0.15</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1">
         <v>0.05</v>
       </c>
       <c r="I26" s="1">
@@ -1309,13 +1690,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2">
         <v>0.15</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1">
         <v>0.25</v>
@@ -1326,13 +1707,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C28" t="s">
         <v>45</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
       </c>
       <c r="E28" s="1">
         <v>0.5</v>
@@ -1389,7 +1770,7 @@
         <v>0.05</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1">
         <v>0.04</v>
@@ -1400,13 +1781,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C32" t="s">
         <v>54</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1428,7 +1809,7 @@
       <c r="C33" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>0.05</v>
       </c>
       <c r="F33" s="1">
@@ -1446,7 +1827,7 @@
         <v>0.25</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I34" s="1">
         <v>0.03</v>
@@ -1454,13 +1835,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2">
         <v>0.25</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -1477,9 +1858,9 @@
         <v>0.05</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="2">
+        <v>62</v>
+      </c>
+      <c r="D36" s="1">
         <v>0.05</v>
       </c>
       <c r="I36" s="1">
@@ -1494,9 +1875,9 @@
         <v>0.05</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="2">
+        <v>63</v>
+      </c>
+      <c r="D37" s="1">
         <v>0.05</v>
       </c>
       <c r="I37" s="1">
@@ -1505,13 +1886,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C38" t="s">
         <v>62</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
       </c>
       <c r="E38" s="1">
         <v>0.5</v>
@@ -1522,13 +1903,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2">
         <v>0.05</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="1">
         <v>0.5</v>
@@ -1545,9 +1926,9 @@
         <v>0.25</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="2">
+        <v>66</v>
+      </c>
+      <c r="D40" s="1">
         <v>0.02</v>
       </c>
       <c r="E40" s="1">
@@ -1556,13 +1937,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2">
         <v>0.25</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="1">
         <v>0.5</v>
@@ -1596,9 +1977,9 @@
         <v>0.25</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="2">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1">
         <v>0.02</v>
       </c>
       <c r="E43" s="1">
@@ -1607,13 +1988,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2">
         <v>0.25</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1632,7 +2013,7 @@
       <c r="C45" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>0.05</v>
       </c>
       <c r="J45" s="1">
@@ -1649,7 +2030,7 @@
       <c r="C46" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>0.05</v>
       </c>
       <c r="E46" s="1">
@@ -1667,9 +2048,9 @@
         <v>0.03</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="2">
+        <v>77</v>
+      </c>
+      <c r="D47" s="1">
         <v>0.03</v>
       </c>
       <c r="H47" s="1">
@@ -1678,15 +2059,15 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2">
         <v>0.03</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="2">
+        <v>77</v>
+      </c>
+      <c r="D48" s="1">
         <v>0.02</v>
       </c>
       <c r="E48" s="1">
@@ -1704,7 +2085,7 @@
         <v>0.25</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F49" s="1">
         <v>0.5</v>
@@ -1712,13 +2093,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2">
         <v>0.25</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -1732,9 +2113,9 @@
         <v>0.25</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="2">
+        <v>83</v>
+      </c>
+      <c r="D51" s="1">
         <v>0.1</v>
       </c>
       <c r="I51" s="1">
@@ -1743,13 +2124,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2">
         <v>0.25</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -1766,9 +2147,9 @@
         <v>0.25</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="2">
+        <v>86</v>
+      </c>
+      <c r="D53" s="1">
         <v>0.03</v>
       </c>
       <c r="E53" s="1">
@@ -1780,15 +2161,15 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2">
         <v>0.25</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="2">
+        <v>86</v>
+      </c>
+      <c r="D54" s="1">
         <v>0.03</v>
       </c>
       <c r="E54" s="1">
@@ -1811,7 +2192,7 @@
       <c r="C55" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>0.05</v>
       </c>
     </row>
@@ -1840,21 +2221,21 @@
         <v>0.03</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="2">
+        <v>92</v>
+      </c>
+      <c r="D57" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2">
         <v>0.03</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E58" s="1">
         <v>0.5</v>
@@ -1873,7 +2254,7 @@
       <c r="C59" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -1887,7 +2268,7 @@
       <c r="C60" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>0.05</v>
       </c>
       <c r="F60" s="1">
@@ -1924,7 +2305,7 @@
       <c r="C62" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>0.05</v>
       </c>
       <c r="I62" s="1">
@@ -1967,7 +2348,7 @@
       <c r="C64" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>0.04</v>
       </c>
       <c r="I64" s="1">
@@ -1982,23 +2363,23 @@
         <v>0.01</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" s="2">
+        <v>105</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2">
         <v>0.01</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="2">
+        <v>105</v>
+      </c>
+      <c r="D66" s="1">
         <v>0.1</v>
       </c>
       <c r="F66" s="1">
@@ -2058,7 +2439,7 @@
         <v>0.03</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E70" s="1">
         <v>0.02</v>
@@ -2066,7 +2447,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2">
         <v>1E-3</v>
@@ -2074,7 +2455,7 @@
       <c r="C71" t="s">
         <v>111</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>0.1</v>
       </c>
       <c r="H71" s="1">
@@ -2083,7 +2464,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2">
         <v>1E-3</v>
@@ -2205,7 +2586,7 @@
       <c r="C84" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>0.19</v>
       </c>
       <c r="J84" s="1">
@@ -2227,6 +2608,11 @@
       </c>
       <c r="J85" s="1">
         <v>0.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2236,4 +2622,831 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F380BD87-4B54-4287-B3BE-2CAFCA7C3EB4}">
+  <dimension ref="A1:C83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/IdleQuest.xlsx
+++ b/IdleQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97709571ec787701/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="351" documentId="8_{5F50E566-68AF-4D73-99C9-A8CDB3E3F887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{45505524-0451-4B56-BEEF-A6C333CB3DEC}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="8_{5F50E566-68AF-4D73-99C9-A8CDB3E3F887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A9D5B46-E33D-4954-B123-6773915E6583}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E80DA7F6-1346-4970-96B5-338067CFB3A1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="254">
   <si>
     <t>Name</t>
   </si>
@@ -490,9 +490,6 @@
     <t>Socky</t>
   </si>
   <si>
-    <t>Robot T-Rex</t>
-  </si>
-  <si>
     <t>Salt Shaker</t>
   </si>
   <si>
@@ -721,18 +718,6 @@
     <t>Starter Sword, Condemner's Mantle, Condemner's Spear</t>
   </si>
   <si>
-    <t>Starter Sword, ???, ???</t>
-  </si>
-  <si>
-    <t>Starter Scepter, ???, ???</t>
-  </si>
-  <si>
-    <t>Starter Axe, ???, ???</t>
-  </si>
-  <si>
-    <t>Starter Staff, ???, ???, ???</t>
-  </si>
-  <si>
     <t>Broom, Sensei's Wraps, Sensei's Blade</t>
   </si>
   <si>
@@ -773,6 +758,45 @@
   </si>
   <si>
     <t>27? Needs verification</t>
+  </si>
+  <si>
+    <t>Warrior Shield</t>
+  </si>
+  <si>
+    <t>Heaven's Door</t>
+  </si>
+  <si>
+    <t>Viking Cloak &amp; Hammer</t>
+  </si>
+  <si>
+    <t>Viking Sword</t>
+  </si>
+  <si>
+    <t>Shaman Shawl</t>
+  </si>
+  <si>
+    <t>Starter Scepter, Viking Cloak &amp; Hammer, Viking Sword</t>
+  </si>
+  <si>
+    <t>Monk Staff</t>
+  </si>
+  <si>
+    <t>Warrior Broadsword</t>
+  </si>
+  <si>
+    <t>Starter Sword, Warrior Shield, Warrior Broadsword</t>
+  </si>
+  <si>
+    <t>Shaman Staff</t>
+  </si>
+  <si>
+    <t>Monk Cloak</t>
+  </si>
+  <si>
+    <t>Starter Axe, Shaman Shawl, Shaman Staff</t>
+  </si>
+  <si>
+    <t>Starter Staff, Heaven's Door, Monk Cloak, Monk Staff</t>
   </si>
 </sst>
 </file>
@@ -871,8 +895,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB115826-002C-4692-94C8-398C36B7DB61}" name="Table1" displayName="Table1" ref="A1:J86" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:J86" xr:uid="{E6774178-0411-4C08-B57F-91E4FDE1480D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB115826-002C-4692-94C8-398C36B7DB61}" name="Table1" displayName="Table1" ref="A1:J88" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:J88" xr:uid="{E6774178-0411-4C08-B57F-91E4FDE1480D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1417607F-DC6C-483B-8AC6-79A0094377A7}" name="Name"/>
     <tableColumn id="2" xr3:uid="{DD39E86F-A979-4B8D-B581-AB33E7D01CFB}" name="Drop Rate" dataDxfId="8"/>
@@ -1198,13 +1222,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF7701A-82AF-419C-B695-8ABCC4B32F00}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
@@ -2484,12 +2510,33 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>241</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>248</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2511,17 +2558,62 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>242</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.19</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>251</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>247</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2540,12 +2632,39 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>243</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>244</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -2564,55 +2683,89 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="B83" s="2">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="C83" t="s">
-        <v>123</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0.02</v>
+        <v>121</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="B84" s="2">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="J84" s="1">
-        <v>0.3</v>
+        <v>121</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="C85" t="s">
         <v>123</v>
       </c>
       <c r="E85" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="J85" s="1">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>124</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +2903,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
         <v>136</v>
@@ -2761,7 +2914,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
         <v>137</v>
@@ -2783,15 +2936,15 @@
         <v>138</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,7 +2955,7 @@
         <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2823,7 +2976,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>146</v>
@@ -2845,39 +2998,39 @@
         <v>150</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
@@ -2888,10 +3041,10 @@
         <v>45</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,10 +3052,10 @@
         <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,7 +3063,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -2921,7 +3074,7 @@
         <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
@@ -2929,18 +3082,18 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2948,10 +3101,10 @@
         <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2959,7 +3112,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
         <v>51</v>
@@ -2967,10 +3120,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,7 +3131,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
@@ -2986,10 +3139,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,18 +3150,18 @@
         <v>59</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
         <v>168</v>
-      </c>
-      <c r="C38" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,10 +3169,10 @@
         <v>63</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,18 +3180,18 @@
         <v>66</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -3046,10 +3199,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,34 +3210,34 @@
         <v>71</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,10 +3245,10 @@
         <v>77</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,10 +3256,10 @@
         <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,10 +3267,10 @@
         <v>80</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" t="s">
         <v>190</v>
-      </c>
-      <c r="C50" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3125,10 +3278,10 @@
         <v>83</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s">
         <v>195</v>
-      </c>
-      <c r="C51" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +3289,10 @@
         <v>86</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" t="s">
         <v>197</v>
-      </c>
-      <c r="C52" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,10 +3300,10 @@
         <v>92</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,26 +3311,26 @@
         <v>89</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" t="s">
         <v>199</v>
-      </c>
-      <c r="C54" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,10 +3338,10 @@
         <v>95</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3196,7 +3349,7 @@
         <v>98</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
         <v>97</v>
@@ -3207,18 +3360,18 @@
         <v>100</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C60" t="s">
         <v>102</v>
@@ -3226,10 +3379,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3237,10 +3390,10 @@
         <v>105</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3248,10 +3401,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3259,50 +3412,50 @@
         <v>108</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3310,10 +3463,10 @@
         <v>111</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" t="s">
         <v>226</v>
-      </c>
-      <c r="C70" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3321,10 +3474,10 @@
         <v>112</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3332,10 +3485,10 @@
         <v>117</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3343,10 +3496,10 @@
         <v>119</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3354,10 +3507,10 @@
         <v>121</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3365,64 +3518,64 @@
         <v>123</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C81" t="s">
         <v>115</v>
@@ -3430,15 +3583,15 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/IdleQuest.xlsx
+++ b/IdleQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97709571ec787701/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="8_{5F50E566-68AF-4D73-99C9-A8CDB3E3F887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A9D5B46-E33D-4954-B123-6773915E6583}"/>
+  <xr:revisionPtr revIDLastSave="694" documentId="8_{5F50E566-68AF-4D73-99C9-A8CDB3E3F887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{59388ED3-6BB4-4CB4-905C-9483392F36CB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E80DA7F6-1346-4970-96B5-338067CFB3A1}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="Enemies" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Enemies!$A$82:$A$93</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="307">
   <si>
     <t>Name</t>
   </si>
@@ -739,15 +742,9 @@
     <t>Twig</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>Mort</t>
   </si>
   <si>
-    <t>???, ???</t>
-  </si>
-  <si>
     <t>Lens Flare</t>
   </si>
   <si>
@@ -797,6 +794,171 @@
   </si>
   <si>
     <t>Starter Staff, Heaven's Door, Monk Cloak, Monk Staff</t>
+  </si>
+  <si>
+    <t>Necromancer's Shroud</t>
+  </si>
+  <si>
+    <t>Necro Staff</t>
+  </si>
+  <si>
+    <t>Paladin Sword</t>
+  </si>
+  <si>
+    <t>Paladin Cloak</t>
+  </si>
+  <si>
+    <t>Scarecrow Staff</t>
+  </si>
+  <si>
+    <t>Paladin Sword, Paladin Cloak</t>
+  </si>
+  <si>
+    <t>Necro Staff, Necromancer's Shroud</t>
+  </si>
+  <si>
+    <t>Artix</t>
+  </si>
+  <si>
+    <t>Robina</t>
+  </si>
+  <si>
+    <t>Alina</t>
+  </si>
+  <si>
+    <t>Thyton</t>
+  </si>
+  <si>
+    <t>Dage</t>
+  </si>
+  <si>
+    <t>Cysero</t>
+  </si>
+  <si>
+    <t>Vidra</t>
+  </si>
+  <si>
+    <t>Korin</t>
+  </si>
+  <si>
+    <t>Drakath</t>
+  </si>
+  <si>
+    <t>Warlic</t>
+  </si>
+  <si>
+    <t>Stryche</t>
+  </si>
+  <si>
+    <t>Beleen</t>
+  </si>
+  <si>
+    <t>Requin</t>
+  </si>
+  <si>
+    <t>Daimyo</t>
+  </si>
+  <si>
+    <t>Horc Dagger</t>
+  </si>
+  <si>
+    <t>Snot Slime</t>
+  </si>
+  <si>
+    <t>Slime Blade</t>
+  </si>
+  <si>
+    <t>Boogerbelch</t>
+  </si>
+  <si>
+    <t>Moglinster</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>38, 40</t>
+  </si>
+  <si>
+    <t>39, 40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Horc Dager</t>
+  </si>
+  <si>
+    <t>Starter Dagger</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Slime Cloak</t>
+  </si>
+  <si>
+    <t>Slime Blade, Slime Cloak</t>
+  </si>
+  <si>
+    <t>Battleaxe</t>
+  </si>
+  <si>
+    <t>Flying Eye</t>
+  </si>
+  <si>
+    <t>41, 42</t>
+  </si>
+  <si>
+    <t>Discount Shortsword</t>
+  </si>
+  <si>
+    <t>Discount Sword</t>
+  </si>
+  <si>
+    <t>Cysero's Hammer</t>
+  </si>
+  <si>
+    <t>Slendarian</t>
+  </si>
+  <si>
+    <t>Gladiator's Gear, Gladiator's Spear</t>
+  </si>
+  <si>
+    <t>Conqueror's Spear</t>
+  </si>
+  <si>
+    <t>Discount Staff</t>
+  </si>
+  <si>
+    <t>Ruby Edge</t>
+  </si>
+  <si>
+    <t>ShadowStrike</t>
+  </si>
+  <si>
+    <t>Dage the Evil</t>
+  </si>
+  <si>
+    <t>Crystal Staff</t>
+  </si>
+  <si>
+    <t>Battleaxe, ???</t>
+  </si>
+  <si>
+    <t>Gladiator's Gear</t>
+  </si>
+  <si>
+    <t>Gladiator's Spear</t>
+  </si>
+  <si>
+    <t>Squeye</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>42, 42</t>
   </si>
 </sst>
 </file>
@@ -829,7 +991,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -837,15 +999,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,8 +1071,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB115826-002C-4692-94C8-398C36B7DB61}" name="Table1" displayName="Table1" ref="A1:J88" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:J88" xr:uid="{E6774178-0411-4C08-B57F-91E4FDE1480D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB115826-002C-4692-94C8-398C36B7DB61}" name="Table1" displayName="Table1" ref="A1:J110" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:J110" xr:uid="{E6774178-0411-4C08-B57F-91E4FDE1480D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1417607F-DC6C-483B-8AC6-79A0094377A7}" name="Name"/>
     <tableColumn id="2" xr3:uid="{DD39E86F-A979-4B8D-B581-AB33E7D01CFB}" name="Drop Rate" dataDxfId="8"/>
@@ -914,8 +1090,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{119CB808-193F-4766-BDEA-D23839FA0E84}" name="Table2" displayName="Table2" ref="A1:C83" totalsRowShown="0">
-  <autoFilter ref="A1:C83" xr:uid="{BBF408B5-2BCA-4A6E-9211-60FD5CFE8E32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{119CB808-193F-4766-BDEA-D23839FA0E84}" name="Table2" displayName="Table2" ref="A1:C101" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4B60F928-9CC9-413D-8BA4-6C80694B1E88}" name="Name"/>
     <tableColumn id="2" xr3:uid="{36302B2D-F4D9-44C1-BF00-FAF4DBB869C7}" name="Appears on Level" dataDxfId="0"/>
@@ -1222,11 +1397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF7701A-82AF-419C-B695-8ABCC4B32F00}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2510,7 +2683,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B73" s="2">
         <v>1E-3</v>
@@ -2524,7 +2697,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B74" s="2">
         <v>1E-3</v>
@@ -2558,7 +2731,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B76" s="2">
         <v>1E-3</v>
@@ -2578,7 +2751,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B77" s="2">
         <v>1E-3</v>
@@ -2598,7 +2771,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B78" s="2">
         <v>1E-3</v>
@@ -2632,7 +2805,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B80" s="2">
         <v>1E-3</v>
@@ -2649,7 +2822,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B81" s="2">
         <v>1E-3</v>
@@ -2683,7 +2856,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B83" s="2">
         <v>1E-3</v>
@@ -2700,7 +2873,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B84" s="2">
         <v>1E-3</v>
@@ -2765,7 +2938,331 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>255</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>231</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>230</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>283</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C93" t="s">
+        <v>260</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>259</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>266</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>291</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>269</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>292</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>264</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>295</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>271</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>261</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>270</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>299</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>268</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>262</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C106" t="s">
+        <v>274</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>275</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C107" t="s">
+        <v>276</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C108" t="s">
+        <v>276</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2779,11 +3276,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F380BD87-4B54-4287-B3BE-2CAFCA7C3EB4}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2976,7 +3471,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>146</v>
@@ -3477,7 +3972,7 @@
         <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3488,7 +3983,7 @@
         <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3499,7 +3994,7 @@
         <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3510,7 +4005,7 @@
         <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3529,7 +4024,7 @@
         <v>232</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,15 +4032,15 @@
         <v>233</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3553,45 +4048,245 @@
         <v>229</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>261</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>240</v>
+        <v>280</v>
+      </c>
+      <c r="C83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>271</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>293</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>304</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>237</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
